--- a/Dokumentáció/Projekt_Táblázatok.xlsx
+++ b/Dokumentáció/Projekt_Táblázatok.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projekt13\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\somogyibb\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48238A40-6F4A-4DEC-B2BB-3AC6AE79072F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA07D9A0-6416-4893-9FA3-6DCB4883B625}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{0C3DA0FB-A15A-46D2-BC08-5B9078606979}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" xr2:uid="{0C3DA0FB-A15A-46D2-BC08-5B9078606979}"/>
   </bookViews>
   <sheets>
     <sheet name="IP Címek" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="61">
   <si>
     <t>Blake-Router</t>
   </si>
@@ -94,9 +94,6 @@
     <t>1 PC</t>
   </si>
   <si>
-    <t>1 ASA tűzfal</t>
-  </si>
-  <si>
     <t>2 Router</t>
   </si>
   <si>
@@ -206,6 +203,12 @@
   </si>
   <si>
     <t>DHCP</t>
+  </si>
+  <si>
+    <t>ASA Tűzfal</t>
+  </si>
+  <si>
+    <t>Layer 3 Switch</t>
   </si>
 </sst>
 </file>
@@ -242,7 +245,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -266,19 +269,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -417,13 +407,15 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -439,82 +431,105 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -536,9 +551,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -576,7 +591,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -682,7 +697,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -824,7 +839,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -832,441 +847,551 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{377E1871-5BE3-4102-A196-0C470A600A9B}">
-  <dimension ref="A2:O27"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="11.5703125" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C2" s="8" t="s">
+    <row r="1" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C2" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="9" t="s">
+      <c r="D2" s="25"/>
+      <c r="E2" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="26"/>
+    </row>
+    <row r="3" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C3" s="27"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="28"/>
+    </row>
+    <row r="4" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C4" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="17"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="20"/>
+    </row>
+    <row r="5" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C5" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="20"/>
+    </row>
+    <row r="6" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C6" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="17"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="30"/>
+    </row>
+    <row r="7" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C7" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="17"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="30"/>
+    </row>
+    <row r="8" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C8" s="31"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="30"/>
+    </row>
+    <row r="9" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C9" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="23"/>
+      <c r="E9" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="30"/>
+    </row>
+    <row r="10" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C10" s="32"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="30"/>
+    </row>
+    <row r="11" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C11" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="23"/>
+      <c r="E11" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="O2" s="8"/>
-    </row>
-    <row r="3" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-    </row>
-    <row r="4" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-    </row>
-    <row r="5" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-    </row>
-    <row r="6" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C6" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C7" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-    </row>
-    <row r="9" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C9" s="6" t="s">
+      <c r="G11" s="17"/>
+      <c r="H11" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5" t="s">
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="30"/>
+    </row>
+    <row r="12" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C12" s="32"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-    </row>
-    <row r="10" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="5" t="s">
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="30"/>
+    </row>
+    <row r="13" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C13" s="32"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="30"/>
+    </row>
+    <row r="14" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C14" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="23"/>
+      <c r="E14" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5" t="s">
+      <c r="G14" s="17"/>
+      <c r="H14" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="30"/>
+    </row>
+    <row r="15" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C15" s="32"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-    </row>
-    <row r="11" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C11" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5" t="s">
+      <c r="I15" s="17"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="30"/>
+    </row>
+    <row r="16" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C16" s="32"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-    </row>
-    <row r="12" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I12" s="7"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-    </row>
-    <row r="13" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I13" s="7"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-    </row>
-    <row r="14" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C14" s="6" t="s">
+      <c r="I16" s="17"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="30"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C17" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="17"/>
+      <c r="E17" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="30"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C18" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="17"/>
+      <c r="E18" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="30"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C19" s="31"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="30"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C20" s="31"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="30"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C21" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="17"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="30"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C22" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="23"/>
+      <c r="E22" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5" t="s">
+      <c r="F22" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="G22" s="23"/>
+      <c r="H22" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="30"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C23" s="32"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-    </row>
-    <row r="15" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I15" s="7"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I16" s="7"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C17" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C21" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C22" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G22" s="6"/>
-      <c r="H22" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F23" s="5" t="s">
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="30"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="C24" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="C24" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C26" s="5" t="s">
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="30"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C25" s="31"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="30"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C26" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C27" s="5" t="s">
+      <c r="D26" s="17"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="30"/>
+    </row>
+    <row r="27" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C27" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="35"/>
+      <c r="O27" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="C2:D3"/>
-    <mergeCell ref="F2:G3"/>
-    <mergeCell ref="H2:I3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C14:D16"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="N2:O3"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J2:K3"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="F11:G11"/>
@@ -1282,35 +1407,43 @@
     <mergeCell ref="H17:I17"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="J14:K14"/>
-    <mergeCell ref="N2:O3"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J2:K3"/>
     <mergeCell ref="F10:G10"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="C2:D3"/>
+    <mergeCell ref="F2:G3"/>
+    <mergeCell ref="H2:I3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="E2:E3"/>
     <mergeCell ref="C9:D10"/>
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="C11:D13"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C14:D16"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C22:D23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1318,114 +1451,135 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E209D596-D31B-4ABA-9CBA-D31D5264E8EF}">
-  <dimension ref="C7:J13"/>
+  <dimension ref="C7:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="7" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-    </row>
-    <row r="8" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C8" s="10" t="s">
+    <row r="7" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11" t="s">
+      <c r="D8" s="12"/>
+      <c r="E8" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11" t="s">
+      <c r="F8" s="12"/>
+      <c r="G8" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11" t="s">
+      <c r="H8" s="12"/>
+      <c r="I8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="14"/>
-    </row>
-    <row r="9" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C9" s="12"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="15"/>
-    </row>
-    <row r="10" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C10" s="25" t="s">
+      <c r="J8" s="15"/>
+    </row>
+    <row r="9" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C9" s="13"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="16"/>
+    </row>
+    <row r="10" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16" t="s">
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C11" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" s="17"/>
-    </row>
-    <row r="11" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C11" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16" t="s">
+      <c r="F11" s="3"/>
+      <c r="G11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C12" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16" t="s">
+      <c r="F12" s="3"/>
+      <c r="G12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16" t="s">
+      <c r="H12" s="3"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="20"/>
+    </row>
+    <row r="13" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C13" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="J11" s="17"/>
-    </row>
-    <row r="12" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C12" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16" t="s">
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" s="16"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="21"/>
-    </row>
-    <row r="13" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="24"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="20"/>
+    </row>
+    <row r="14" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C14" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="25">
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="E8:F9"/>
+    <mergeCell ref="G8:H9"/>
+    <mergeCell ref="I8:J9"/>
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="I11:J11"/>
@@ -1442,11 +1596,6 @@
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="G11:H11"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="E8:F9"/>
-    <mergeCell ref="G8:H9"/>
-    <mergeCell ref="I8:J9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
